--- a/MISO/Constraint Analyses/Top Congestion Reports/May-25_RT.xlsx
+++ b/MISO/Constraint Analyses/Top Congestion Reports/May-25_RT.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://roscommonanalytics-my.sharepoint.com/personal/lgraham_roscommonanalytics_com/Documents/Documents/Obsidian_Vault/MISO/Constraint Analyses/Top Congestion Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="8_{3FFB858D-B3F6-4652-B6E8-783DC7461110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73115E8D-4DB2-4D23-8B64-22B7D82004AD}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="8_{3FFB858D-B3F6-4652-B6E8-783DC7461110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99E83138-EE89-4399-B1FD-C99DE53A23F0}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{70024661-F45A-494B-9E65-421154F17438}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="31920" activeTab="1" xr2:uid="{70024661-F45A-494B-9E65-421154F17438}"/>
   </bookViews>
   <sheets>
     <sheet name="May-25 RT Pk" sheetId="1" r:id="rId1"/>
     <sheet name="May-25 RT Off" sheetId="2" r:id="rId2"/>
-    <sheet name="Merged" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="135">
   <si>
     <t>cid</t>
   </si>
@@ -422,9 +421,6 @@
   </si>
   <si>
     <t>Dumont-Wilton Center 765 kV outage, summer ratings</t>
-  </si>
-  <si>
-    <t>mon</t>
   </si>
   <si>
     <t>Eastward wind transfer from Buffalo Ridge to Minneapolis. Stopped binding once Chub Lk-Helena 345 kV outage began.</t>
@@ -503,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -513,7 +509,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1199,7 +1194,7 @@
         <v>33</v>
       </c>
       <c r="O7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -1434,7 +1429,7 @@
         <v>47</v>
       </c>
       <c r="O12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1575,7 +1570,7 @@
         <v>56</v>
       </c>
       <c r="O15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1810,7 +1805,7 @@
         <v>70</v>
       </c>
       <c r="O20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -2124,7 +2119,7 @@
         <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -2453,7 +2448,7 @@
         <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -2829,7 +2824,7 @@
         <v>101</v>
       </c>
       <c r="O20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -2882,180 +2877,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4BE4A9F-7C0A-4102-A1D8-EFCC69991E88}">
-  <dimension ref="A1:A31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="86.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A31">
-    <sortCondition ref="A1:A31"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>